--- a/results/accuracy_by_stats.xlsx
+++ b/results/accuracy_by_stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="18240" activeTab="1"/>
+    <workbookView windowHeight="18240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="type" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="24">
   <si>
     <t>type</t>
   </si>
@@ -1235,8 +1235,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1477,13 +1477,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -1492,156 +1492,188 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>0.750815647511064</v>
-      </c>
-      <c r="C2">
-        <v>0.794715250185742</v>
-      </c>
-      <c r="D2">
-        <v>0.798979229253481</v>
-      </c>
-      <c r="E2">
-        <v>0.803501631295022</v>
-      </c>
-      <c r="F2">
-        <v>0.808250153438641</v>
-      </c>
-      <c r="G2">
-        <v>0.811125109022192</v>
-      </c>
-      <c r="H2">
-        <v>0.818102529314856</v>
-      </c>
-      <c r="I2">
-        <v>0.822560325612947</v>
-      </c>
-      <c r="J2">
-        <v>0.723132086442485</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>0.802074870320605</v>
-      </c>
-      <c r="C3">
-        <v>0.825135929004437</v>
-      </c>
-      <c r="D3">
-        <v>0.829198175114055</v>
-      </c>
-      <c r="E3">
-        <v>0.832385475907756</v>
-      </c>
-      <c r="F3">
-        <v>0.835260296231486</v>
-      </c>
-      <c r="G3">
-        <v>0.837510155615274</v>
-      </c>
-      <c r="H3">
-        <v>0.841884882194863</v>
-      </c>
-      <c r="I3">
-        <v>0.845072182988563</v>
-      </c>
-      <c r="J3">
-        <v>0.785325917130179</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.750815647511064</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.794715250185742</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.798979229253481</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.803501631295022</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.808250153438641</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.811125109022192</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.818102529314856</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.822560325612947</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.723132086442485</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>0.932180461613555</v>
-      </c>
-      <c r="C4">
-        <v>0.933742416846803</v>
-      </c>
-      <c r="D4">
-        <v>0.93392371522209</v>
-      </c>
-      <c r="E4">
-        <v>0.933714524789066</v>
-      </c>
-      <c r="F4">
-        <v>0.933728470817935</v>
-      </c>
-      <c r="G4">
-        <v>0.93392371522209</v>
-      </c>
-      <c r="H4">
-        <v>0.933951607279827</v>
-      </c>
-      <c r="I4">
-        <v>0.933756362875671</v>
-      </c>
-      <c r="J4">
-        <v>0.730911372986542</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.802074870320605</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.825135929004437</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.829198175114055</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.832385475907756</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.835260296231486</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.837510155615274</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.841884882194863</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.845072182988563</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.785325917130179</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.932180461613555</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.933742416846803</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.93392371522209</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.933714524789066</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.933728470817935</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.93392371522209</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.933951607279827</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.933756362875671</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.730911372986542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="3">
         <v>0.878258336973933</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="3">
         <v>0.899665064802679</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="3">
         <v>0.902140672782875</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="3">
         <v>0.90345128877239</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="3">
         <v>0.905635648754915</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="3">
         <v>0.906509392747925</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="3">
         <v>0.910586864715305</v>
       </c>
-      <c r="I5">
+      <c r="I6" s="3">
         <v>0.912916848696665</v>
       </c>
-      <c r="J5">
+      <c r="J6" s="3">
         <v>0.873452745012378</v>
       </c>
     </row>
